--- a/Surveys/Response MatrixJSF.xlsx
+++ b/Surveys/Response MatrixJSF.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\2015-09 Joint Development\Surveys\JSF F35\Responses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Development\JointDevelopment\Surveys\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18345" windowHeight="9750" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="108">
   <si>
     <t>INTEGRATION: Government and Industry</t>
   </si>
@@ -330,136 +330,25 @@
     <t>Stakeholder</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Decision-making Integration</t>
-  </si>
-  <si>
-    <t>Regular Consultation on Decisions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Separate Decision-making but </t>
-  </si>
-  <si>
-    <t>Regular International Consultation on Decisions</t>
-  </si>
-  <si>
-    <t>Working-together Integration</t>
-  </si>
-  <si>
-    <t>Complete Integration with Equal Authority</t>
-  </si>
-  <si>
-    <t>Regular Consultation on Decisions Between Industries</t>
-  </si>
-  <si>
-    <t>Occasional integration</t>
-  </si>
-  <si>
-    <t>Slight Influence</t>
-  </si>
-  <si>
-    <t>Definitely Influenced a Few Times</t>
-  </si>
-  <si>
-    <t>Influenced More Often than Not</t>
-  </si>
-  <si>
-    <t>Often Influenced Decision Making</t>
-  </si>
-  <si>
-    <t>Always Influenced</t>
-  </si>
-  <si>
-    <t>Often Depended</t>
-  </si>
-  <si>
-    <t>Depended Occasionally</t>
-  </si>
-  <si>
-    <t>Depended More than Occasionally</t>
-  </si>
-  <si>
-    <t>Measures that can be Moderately Incurred</t>
-  </si>
-  <si>
-    <t>Minor Incentives to Prevent Defection</t>
-  </si>
-  <si>
-    <t>Explicity and Strong Measures</t>
-  </si>
-  <si>
-    <t>No Explicit Measures but Possibility to Create Them</t>
-  </si>
-  <si>
-    <t>Changes Under Multiple Circumstances but with High Hurdles</t>
-  </si>
-  <si>
-    <t>Changes were Easy but only in Limited Cases</t>
-  </si>
-  <si>
-    <t>Changes Only Under Limited Circumstances with High Hurdles</t>
-  </si>
-  <si>
-    <t>Changes Were Easy but only in Limited Cases</t>
-  </si>
-  <si>
-    <t>Compatible Strategic Needs and Different Operational Needs</t>
-  </si>
-  <si>
-    <t>Compatible in Strategic Needs and Slight Overlap in Operational Needs</t>
-  </si>
-  <si>
-    <t>Identical Operational Requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Similar Operational Requirements </t>
-  </si>
-  <si>
-    <t>Similar Operational Requirements</t>
-  </si>
-  <si>
-    <t>Mostly Based on Demand for Leading-edge Tech.</t>
-  </si>
-  <si>
-    <t>Equally Based on Demand for Leading-edge Tech. as Other Demands</t>
-  </si>
-  <si>
-    <t>Entirely Based on Demand for Leading-edge Tech.</t>
-  </si>
-  <si>
-    <t>Equally Based on Demand for Economies of Scale</t>
-  </si>
-  <si>
-    <t>Moderately Based on Demand for Economies of Scale</t>
-  </si>
-  <si>
-    <t>Mostly Based on Demand for Economies of Scale</t>
-  </si>
-  <si>
-    <t>Not Based on Demand for Economies of Scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Based on Comparative Advantage more than Occasionally </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Based on Comparative Advantage Occasionally </t>
-  </si>
-  <si>
-    <t>Slightly Based on Comparative Advantage</t>
-  </si>
-  <si>
-    <t>Based on Political or Industrial-base Goals Occasionally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Often Took into account Political or Industrial-base Goals </t>
-  </si>
-  <si>
-    <t>Always Based on Political or Industrial-base Goals</t>
-  </si>
-  <si>
-    <t>Based on Political or Industrial-base Goals more than Occasionally</t>
+    <t>i</t>
+  </si>
+  <si>
+    <t>ii</t>
+  </si>
+  <si>
+    <t>iii</t>
+  </si>
+  <si>
+    <t>iv</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>StakeholderPart</t>
   </si>
 </sst>
 </file>
@@ -684,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -758,7 +647,6 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1081,10 +969,10 @@
         <v>73</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
     </row>
@@ -1128,7 +1016,7 @@
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="26"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
     </row>
@@ -1166,10 +1054,10 @@
         <v>74</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
     </row>
@@ -1212,7 +1100,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="26"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="1"/>
       <c r="E17" s="13"/>
       <c r="F17" s="14"/>
@@ -1251,10 +1139,10 @@
         <v>75</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
     </row>
@@ -1280,7 +1168,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
-      <c r="B26" s="26"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="18"/>
       <c r="D26" s="21"/>
       <c r="E26" s="2"/>
@@ -1336,10 +1224,10 @@
         <v>76</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="29"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="5"/>
       <c r="F36" s="6"/>
     </row>
@@ -1382,7 +1270,7 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
-      <c r="C40" s="26"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="14"/>
@@ -1421,10 +1309,10 @@
         <v>77</v>
       </c>
       <c r="B47" s="5"/>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="29"/>
+      <c r="D47" s="28"/>
       <c r="E47" s="5"/>
       <c r="F47" s="6"/>
     </row>
@@ -1469,7 +1357,7 @@
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
-      <c r="E51" s="26"/>
+      <c r="E51" s="25"/>
       <c r="F51" s="14"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1506,10 +1394,10 @@
         <v>78</v>
       </c>
       <c r="B58" s="5"/>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="29"/>
+      <c r="D58" s="28"/>
       <c r="E58" s="5"/>
       <c r="F58" s="6"/>
     </row>
@@ -1567,7 +1455,7 @@
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
       <c r="B64" s="13"/>
-      <c r="C64" s="26"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
       <c r="F64" s="14"/>
@@ -1590,10 +1478,10 @@
         <v>79</v>
       </c>
       <c r="B70" s="5"/>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D70" s="29"/>
+      <c r="D70" s="28"/>
       <c r="E70" s="5"/>
       <c r="F70" s="6"/>
     </row>
@@ -1630,7 +1518,7 @@
       <c r="C73" s="1"/>
       <c r="D73" s="13"/>
       <c r="E73" s="24"/>
-      <c r="F73" s="26"/>
+      <c r="F73" s="25"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
@@ -1674,10 +1562,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="5"/>
-      <c r="C81" s="28" t="s">
+      <c r="C81" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="29"/>
+      <c r="D81" s="28"/>
       <c r="E81" s="5"/>
       <c r="F81" s="6"/>
     </row>
@@ -1710,7 +1598,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
-      <c r="B84" s="26"/>
+      <c r="B84" s="25"/>
       <c r="C84" s="18"/>
       <c r="D84" s="24"/>
       <c r="E84" s="13"/>
@@ -1758,10 +1646,10 @@
         <v>81</v>
       </c>
       <c r="B93" s="5"/>
-      <c r="C93" s="28" t="s">
+      <c r="C93" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D93" s="29"/>
+      <c r="D93" s="28"/>
       <c r="E93" s="5"/>
       <c r="F93" s="6"/>
     </row>
@@ -1797,7 +1685,7 @@
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
       <c r="D96" s="18"/>
-      <c r="E96" s="26"/>
+      <c r="E96" s="25"/>
       <c r="F96" s="14"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -1842,10 +1730,10 @@
         <v>82</v>
       </c>
       <c r="B105" s="5"/>
-      <c r="C105" s="28" t="s">
+      <c r="C105" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D105" s="29"/>
+      <c r="D105" s="28"/>
       <c r="E105" s="5"/>
       <c r="F105" s="6"/>
     </row>
@@ -1888,7 +1776,7 @@
       <c r="A109" s="12"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
-      <c r="D109" s="26"/>
+      <c r="D109" s="25"/>
       <c r="E109" s="18"/>
       <c r="F109" s="14"/>
     </row>
@@ -1926,10 +1814,10 @@
         <v>83</v>
       </c>
       <c r="B117" s="5"/>
-      <c r="C117" s="28" t="s">
+      <c r="C117" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D117" s="29"/>
+      <c r="D117" s="28"/>
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
     </row>
@@ -1989,7 +1877,7 @@
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
-      <c r="E123" s="26"/>
+      <c r="E123" s="25"/>
       <c r="F123" s="14"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -2010,10 +1898,10 @@
         <v>84</v>
       </c>
       <c r="B129" s="5"/>
-      <c r="C129" s="28" t="s">
+      <c r="C129" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D129" s="29"/>
+      <c r="D129" s="28"/>
       <c r="E129" s="5"/>
       <c r="F129" s="6"/>
     </row>
@@ -2048,7 +1936,7 @@
       <c r="A132" s="12"/>
       <c r="B132" s="24"/>
       <c r="C132" s="13"/>
-      <c r="D132" s="26"/>
+      <c r="D132" s="25"/>
       <c r="E132" s="13"/>
       <c r="F132" s="14"/>
     </row>
@@ -2094,10 +1982,10 @@
         <v>85</v>
       </c>
       <c r="B141" s="5"/>
-      <c r="C141" s="28" t="s">
+      <c r="C141" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D141" s="29"/>
+      <c r="D141" s="28"/>
       <c r="E141" s="5"/>
       <c r="F141" s="6"/>
     </row>
@@ -2133,7 +2021,7 @@
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
       <c r="D144" s="13"/>
-      <c r="E144" s="26"/>
+      <c r="E144" s="25"/>
       <c r="F144" s="23"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -2187,12 +2075,12 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
-      <c r="B154" s="30" t="s">
+      <c r="B154" s="29" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B155" s="31"/>
+      <c r="B155" s="30"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="20"/>
@@ -2213,7 +2101,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="26"/>
+      <c r="A159" s="25"/>
       <c r="B159" s="3" t="s">
         <v>98</v>
       </c>
@@ -2242,1839 +2130,1871 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="2" max="3" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>92</v>
       </c>
       <c r="B1" t="s">
         <v>100</v>
       </c>
       <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
         <v>93</v>
-      </c>
-      <c r="D1" t="s">
-        <v>101</v>
       </c>
       <c r="E1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>2</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>104</v>
       </c>
       <c r="E9">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>74</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>105</v>
+      <c r="D10">
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>74</v>
+      <c r="A11" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>102</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>105</v>
+      <c r="D14">
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>74</v>
+      <c r="A15" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>106</v>
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
       </c>
       <c r="E15">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>74</v>
+      <c r="A16" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>107</v>
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
       </c>
       <c r="E16">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20">
+      <c r="B27">
         <v>2</v>
       </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
-        <v>2</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
-        <v>2</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>111</v>
+      <c r="D27">
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="27">
-        <v>2</v>
+      <c r="A28" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
       <c r="D28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="E28" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="27">
+      <c r="A29" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29">
         <v>2</v>
       </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>113</v>
+      <c r="D29">
+        <v>4</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
+      <c r="A30" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30">
         <v>2</v>
       </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>112</v>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
+      <c r="A31" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31">
         <v>2</v>
       </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31" t="s">
-        <v>111</v>
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="27">
+      <c r="A32" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32">
         <v>2</v>
       </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="C32">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>114</v>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
-        <v>76</v>
+      <c r="A33" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B33">
-        <v>7</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33" t="s">
-        <v>111</v>
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>77</v>
+      <c r="A34" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>115</v>
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
-        <v>77</v>
+      <c r="A35" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
         <v>95</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E42" t="s">
         <v>95</v>
       </c>
-      <c r="E35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39">
-        <v>6</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40">
-        <v>7</v>
-      </c>
-      <c r="C40">
-        <v>5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>4</v>
-      </c>
-      <c r="D42" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
-        <v>78</v>
+      <c r="A43" s="26" t="s">
+        <v>85</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
-      <c r="C43">
-        <v>4</v>
-      </c>
       <c r="D43" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="E43" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="26">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="26">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="26">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="26">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44" t="s">
-        <v>116</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45">
-        <v>4</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>117</v>
-      </c>
-      <c r="E45">
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="26">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="26">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46" t="s">
-        <v>117</v>
-      </c>
-      <c r="E46">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="26">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47">
-        <v>5</v>
-      </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-      <c r="D47" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="26">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="26">
         <v>6</v>
       </c>
-      <c r="C48">
-        <v>5</v>
-      </c>
-      <c r="D48" t="s">
-        <v>115</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49">
-        <v>7</v>
-      </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
-      <c r="D49" t="s">
-        <v>116</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="27">
-        <v>4</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>5</v>
-      </c>
-      <c r="D50" t="s">
-        <v>118</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="27">
-        <v>4</v>
-      </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="D51" t="s">
-        <v>119</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="27">
-        <v>4</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52">
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="D71">
         <v>6</v>
       </c>
-      <c r="D52" t="s">
-        <v>120</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="27">
-        <v>4</v>
-      </c>
-      <c r="B53">
-        <v>4</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="27">
-        <v>4</v>
-      </c>
-      <c r="B54">
-        <v>4</v>
-      </c>
-      <c r="C54">
-        <v>3</v>
-      </c>
-      <c r="D54" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="27">
-        <v>4</v>
-      </c>
-      <c r="B55">
-        <v>5</v>
-      </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-      <c r="D55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="27">
-        <v>4</v>
-      </c>
-      <c r="B56">
-        <v>6</v>
-      </c>
-      <c r="C56">
-        <v>5</v>
-      </c>
-      <c r="D56" t="s">
-        <v>118</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B57">
-        <v>7</v>
-      </c>
-      <c r="C57">
-        <v>6</v>
-      </c>
-      <c r="D57" t="s">
-        <v>120</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="27">
-        <v>5</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>3</v>
-      </c>
-      <c r="D58" t="s">
-        <v>122</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="27">
-        <v>5</v>
-      </c>
-      <c r="B59">
-        <v>2</v>
-      </c>
-      <c r="C59">
-        <v>3</v>
-      </c>
-      <c r="D59" t="s">
-        <v>122</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="27">
-        <v>5</v>
-      </c>
-      <c r="B60">
-        <v>3</v>
-      </c>
-      <c r="C60">
-        <v>4</v>
-      </c>
-      <c r="D60" t="s">
-        <v>123</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="27">
-        <v>5</v>
-      </c>
-      <c r="B61">
-        <v>4</v>
-      </c>
-      <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61" t="s">
-        <v>122</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="27">
-        <v>5</v>
-      </c>
-      <c r="B62">
-        <v>5</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s">
-        <v>124</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="27">
-        <v>5</v>
-      </c>
-      <c r="B63">
-        <v>6</v>
-      </c>
-      <c r="C63">
-        <v>4</v>
-      </c>
-      <c r="D63" t="s">
-        <v>125</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64">
-        <v>7</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64" t="s">
-        <v>124</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="27">
-        <v>6</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-      <c r="D65" t="s">
-        <v>126</v>
-      </c>
-      <c r="E65">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="27">
-        <v>6</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>4</v>
-      </c>
-      <c r="D66" t="s">
-        <v>127</v>
-      </c>
-      <c r="E66">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="27">
-        <v>6</v>
-      </c>
-      <c r="B67">
-        <v>2</v>
-      </c>
-      <c r="C67">
-        <v>4</v>
-      </c>
-      <c r="D67" t="s">
-        <v>127</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="27">
-        <v>6</v>
-      </c>
-      <c r="B68">
-        <v>3</v>
-      </c>
-      <c r="C68">
-        <v>4</v>
-      </c>
-      <c r="D68" t="s">
-        <v>127</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="27">
-        <v>6</v>
-      </c>
-      <c r="B69">
-        <v>4</v>
-      </c>
-      <c r="C69">
-        <v>6</v>
-      </c>
-      <c r="D69" t="s">
-        <v>128</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="27">
-        <v>6</v>
-      </c>
-      <c r="B70">
-        <v>5</v>
-      </c>
-      <c r="C70" t="s">
-        <v>95</v>
-      </c>
-      <c r="D70" t="s">
-        <v>95</v>
-      </c>
-      <c r="E70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="27">
-        <v>6</v>
-      </c>
-      <c r="B71">
-        <v>6</v>
-      </c>
-      <c r="C71">
-        <v>5</v>
-      </c>
-      <c r="D71" t="s">
-        <v>130</v>
-      </c>
       <c r="E71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="27" t="s">
-        <v>81</v>
+      <c r="A72" s="26" t="s">
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>7</v>
-      </c>
-      <c r="C72">
-        <v>5</v>
-      </c>
-      <c r="D72" t="s">
-        <v>129</v>
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="27" t="s">
-        <v>82</v>
+      <c r="A73" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73">
-        <v>5</v>
-      </c>
-      <c r="D73" t="s">
-        <v>131</v>
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="27" t="s">
-        <v>82</v>
+      <c r="A74" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>2</v>
-      </c>
-      <c r="C74">
-        <v>4</v>
-      </c>
-      <c r="D74" t="s">
-        <v>132</v>
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
       </c>
       <c r="E74">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="27" t="s">
-        <v>82</v>
+      <c r="A75" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="B75">
-        <v>2</v>
-      </c>
-      <c r="C75">
-        <v>5</v>
-      </c>
-      <c r="D75" t="s">
-        <v>131</v>
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
       </c>
       <c r="E75">
         <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="27" t="s">
-        <v>82</v>
+      <c r="A76" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76">
-        <v>4</v>
-      </c>
-      <c r="D76" t="s">
-        <v>132</v>
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
       </c>
       <c r="E76">
         <v>0.5</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="27" t="s">
-        <v>82</v>
+      <c r="A77" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>3</v>
-      </c>
-      <c r="C77">
-        <v>5</v>
-      </c>
-      <c r="D77" t="s">
-        <v>131</v>
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
       </c>
       <c r="E77">
         <v>0.5</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="27" t="s">
+      <c r="A78" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B78">
-        <v>4</v>
-      </c>
-      <c r="C78">
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="D79">
         <v>6</v>
       </c>
-      <c r="D78" t="s">
-        <v>133</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="27" t="s">
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>101</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="26">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="26">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="26">
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="26">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>95</v>
+      </c>
+      <c r="E88" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>95</v>
+      </c>
+      <c r="E92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B79">
-        <v>5</v>
-      </c>
-      <c r="C79">
-        <v>5</v>
-      </c>
-      <c r="D79" t="s">
-        <v>131</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80">
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <v>5</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="D97">
         <v>6</v>
       </c>
-      <c r="C80">
-        <v>5</v>
-      </c>
-      <c r="D80" t="s">
-        <v>131</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81">
-        <v>7</v>
-      </c>
-      <c r="C81">
-        <v>4</v>
-      </c>
-      <c r="D81" t="s">
-        <v>132</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <v>4</v>
-      </c>
-      <c r="D82" t="s">
-        <v>134</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83">
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="26">
         <v>2</v>
-      </c>
-      <c r="C83">
-        <v>3</v>
-      </c>
-      <c r="D83" t="s">
-        <v>135</v>
-      </c>
-      <c r="E83">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>2</v>
-      </c>
-      <c r="C84">
-        <v>4</v>
-      </c>
-      <c r="D84" t="s">
-        <v>134</v>
-      </c>
-      <c r="E84">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>2</v>
-      </c>
-      <c r="C85">
-        <v>5</v>
-      </c>
-      <c r="D85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E85">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86">
-        <v>3</v>
-      </c>
-      <c r="C86">
-        <v>3</v>
-      </c>
-      <c r="D86" t="s">
-        <v>135</v>
-      </c>
-      <c r="E86" s="25">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B87">
-        <v>3</v>
-      </c>
-      <c r="C87">
-        <v>4</v>
-      </c>
-      <c r="D87" t="s">
-        <v>134</v>
-      </c>
-      <c r="E87">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88">
-        <v>3</v>
-      </c>
-      <c r="C88">
-        <v>5</v>
-      </c>
-      <c r="D88" t="s">
-        <v>136</v>
-      </c>
-      <c r="E88">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B89">
-        <v>4</v>
-      </c>
-      <c r="C89">
-        <v>5</v>
-      </c>
-      <c r="D89" t="s">
-        <v>136</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90">
-        <v>5</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>137</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91">
-        <v>6</v>
-      </c>
-      <c r="C91">
-        <v>5</v>
-      </c>
-      <c r="D91" t="s">
-        <v>136</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B92">
-        <v>7</v>
-      </c>
-      <c r="C92">
-        <v>5</v>
-      </c>
-      <c r="D92" t="s">
-        <v>136</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93">
-        <v>4</v>
-      </c>
-      <c r="D93" t="s">
-        <v>138</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B94">
-        <v>2</v>
-      </c>
-      <c r="C94" t="s">
-        <v>95</v>
-      </c>
-      <c r="D94" t="s">
-        <v>95</v>
-      </c>
-      <c r="E94" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B95">
-        <v>3</v>
-      </c>
-      <c r="C95" t="s">
-        <v>95</v>
-      </c>
-      <c r="D95" t="s">
-        <v>95</v>
-      </c>
-      <c r="E95" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B96">
-        <v>4</v>
-      </c>
-      <c r="C96">
-        <v>3</v>
-      </c>
-      <c r="D96" t="s">
-        <v>139</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B97">
-        <v>5</v>
-      </c>
-      <c r="C97">
-        <v>2</v>
-      </c>
-      <c r="D97" t="s">
-        <v>140</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="27" t="s">
-        <v>84</v>
       </c>
       <c r="B98">
         <v>6</v>
       </c>
-      <c r="C98">
-        <v>2</v>
-      </c>
-      <c r="D98" t="s">
-        <v>140</v>
+      <c r="D98">
+        <v>6</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="27" t="s">
-        <v>84</v>
+      <c r="A99" s="26">
+        <v>4</v>
       </c>
       <c r="B99">
-        <v>7</v>
-      </c>
-      <c r="C99">
-        <v>4</v>
-      </c>
-      <c r="D99" t="s">
-        <v>138</v>
+        <v>6</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="27" t="s">
-        <v>85</v>
+      <c r="A100" s="26">
+        <v>5</v>
       </c>
       <c r="B100">
-        <v>1</v>
-      </c>
-      <c r="C100">
-        <v>3</v>
-      </c>
-      <c r="D100" t="s">
-        <v>141</v>
+        <v>6</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="27" t="s">
-        <v>85</v>
+      <c r="A101" s="26">
+        <v>6</v>
       </c>
       <c r="B101">
-        <v>2</v>
-      </c>
-      <c r="C101" t="s">
-        <v>95</v>
-      </c>
-      <c r="D101" t="s">
-        <v>95</v>
-      </c>
-      <c r="E101" t="s">
-        <v>95</v>
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="27" t="s">
-        <v>85</v>
+      <c r="A102" s="26" t="s">
+        <v>73</v>
       </c>
       <c r="B102">
-        <v>3</v>
-      </c>
-      <c r="C102" t="s">
-        <v>95</v>
-      </c>
-      <c r="D102" t="s">
-        <v>95</v>
-      </c>
-      <c r="E102" t="s">
-        <v>95</v>
+        <v>6</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="27" t="s">
-        <v>85</v>
+      <c r="A103" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="B103">
-        <v>4</v>
-      </c>
-      <c r="C103">
-        <v>5</v>
-      </c>
-      <c r="D103" t="s">
-        <v>142</v>
+        <v>6</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
       </c>
       <c r="E103">
         <v>0.5</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="27" t="s">
-        <v>85</v>
+      <c r="A104" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="B104">
-        <v>4</v>
-      </c>
-      <c r="C104">
         <v>6</v>
       </c>
-      <c r="D104" t="s">
-        <v>143</v>
+      <c r="D104">
+        <v>6</v>
       </c>
       <c r="E104">
         <v>0.5</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="27" t="s">
-        <v>85</v>
+      <c r="A105" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="B105">
-        <v>5</v>
-      </c>
-      <c r="C105">
         <v>6</v>
       </c>
-      <c r="D105" t="s">
-        <v>143</v>
+      <c r="D105">
+        <v>4</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="27" t="s">
-        <v>85</v>
+      <c r="A106" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="B106">
         <v>6</v>
       </c>
-      <c r="C106">
-        <v>4</v>
-      </c>
-      <c r="D106" t="s">
-        <v>144</v>
+      <c r="D106">
+        <v>4</v>
       </c>
       <c r="E106">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B107">
+        <v>6</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B108">
+        <v>6</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B109">
+        <v>6</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B110">
+        <v>6</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B107">
+      <c r="B111">
+        <v>6</v>
+      </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B112">
         <v>7</v>
       </c>
-      <c r="C107">
-        <v>5</v>
-      </c>
-      <c r="D107" t="s">
-        <v>142</v>
-      </c>
-      <c r="E107">
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B113">
+        <v>7</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B114">
+        <v>7</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B115">
+        <v>7</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B116">
+        <v>7</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B117">
+        <v>7</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B118">
+        <v>7</v>
+      </c>
+      <c r="D118">
+        <v>6</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B119">
+        <v>7</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B120">
+        <v>7</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B121">
+        <v>7</v>
+      </c>
+      <c r="D121">
+        <v>4</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B122">
+        <v>7</v>
+      </c>
+      <c r="D122">
+        <v>5</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B123">
+        <v>7</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B124">
+        <v>7</v>
+      </c>
+      <c r="D124">
+        <v>5</v>
+      </c>
+      <c r="E124">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F107">
+    <sortCondition ref="B2:B107"/>
+    <sortCondition ref="A2:A107"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
